--- a/data/trans_orig/POLIPATOLOGIA_5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3459</v>
+        <v>3467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13131</v>
+        <v>12932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02590245853741088</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01267067364567803</v>
+        <v>0.01269871275406774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0480983769857234</v>
+        <v>0.04736929853870964</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>16146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9145</v>
+        <v>9456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25169</v>
+        <v>25175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06190062091666606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03506172745368046</v>
+        <v>0.03625382686864711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0964923927312714</v>
+        <v>0.09651686901505123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>23218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14926</v>
+        <v>15422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34251</v>
+        <v>33499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04349115684213699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02795976646151686</v>
+        <v>0.02888807214629409</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06415942946600933</v>
+        <v>0.06274925765950851</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259879</v>
+        <v>260078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269551</v>
+        <v>269543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9740975414625891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9519016230142759</v>
+        <v>0.9526307014612908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9873293263543218</v>
+        <v>0.9873012872459322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -836,19 +836,19 @@
         <v>244692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235669</v>
+        <v>235663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251693</v>
+        <v>251382</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.938099379083334</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9035076072687288</v>
+        <v>0.9034831309849488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9649382725463196</v>
+        <v>0.963746173131353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -857,19 +857,19 @@
         <v>510630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499597</v>
+        <v>500349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>518922</v>
+        <v>518426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.956508843157863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9358405705339907</v>
+        <v>0.9372507423404914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9720402335384831</v>
+        <v>0.9711119278537058</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8289</v>
+        <v>8405</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24754</v>
+        <v>25043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03135154998470444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01681022487513216</v>
+        <v>0.01704698680158516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0502037323991184</v>
+        <v>0.05078950915490397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -982,19 +982,19 @@
         <v>57899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46171</v>
+        <v>46255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75295</v>
+        <v>74646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1148896599307019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09161766054853393</v>
+        <v>0.09178584567501348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1494104471748456</v>
+        <v>0.1481221556155175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -1003,19 +1003,19 @@
         <v>73357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57075</v>
+        <v>57688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89736</v>
+        <v>92192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07357615522830907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05724568504344017</v>
+        <v>0.05785998932422519</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09000347216863219</v>
+        <v>0.0924668677571072</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>477616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468321</v>
+        <v>468032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484786</v>
+        <v>484670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9686484500152955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9497962676008816</v>
+        <v>0.9492104908450968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9831897751248682</v>
+        <v>0.9829530131984152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -1053,19 +1053,19 @@
         <v>446050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428654</v>
+        <v>429303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>457778</v>
+        <v>457694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8851103400692981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8505895528251545</v>
+        <v>0.8518778443844826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9083823394514662</v>
+        <v>0.9082141543249865</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -1074,19 +1074,19 @@
         <v>923667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>907288</v>
+        <v>904832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>939949</v>
+        <v>939336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9264238447716909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9099965278313679</v>
+        <v>0.907533132242893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9427543149565598</v>
+        <v>0.942140010675775</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9335</v>
+        <v>9307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01172345397423714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002968152015290071</v>
+        <v>0.002963218543839473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02927746605704718</v>
+        <v>0.02918976994872829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>8094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4109</v>
+        <v>3652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14983</v>
+        <v>15313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02413177859029752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01225039442952226</v>
+        <v>0.0108866381264643</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04466938218614604</v>
+        <v>0.04565563913807753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>11832</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6640</v>
+        <v>6323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19943</v>
+        <v>19649</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01808470832743633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01014912588040376</v>
+        <v>0.009663933295409998</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03048204683120017</v>
+        <v>0.03003276397660223</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>315108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>309511</v>
+        <v>309539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317900</v>
+        <v>317901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9882765460257629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9707225339429528</v>
+        <v>0.9708102300512716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970318479847099</v>
+        <v>0.9970367814561606</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -1270,19 +1270,19 @@
         <v>327318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320429</v>
+        <v>320099</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331303</v>
+        <v>331760</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9758682214097025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9553306178138541</v>
+        <v>0.9543443608619225</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9877496055704779</v>
+        <v>0.989113361873536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>632</v>
@@ -1291,19 +1291,19 @@
         <v>642426</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>634315</v>
+        <v>634609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647618</v>
+        <v>647935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9819152916725636</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9695179531687996</v>
+        <v>0.9699672360233977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9898508741195954</v>
+        <v>0.9903360667045901</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4350</v>
+        <v>4332</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16693</v>
+        <v>17522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02572756153638339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01212745080594288</v>
+        <v>0.01207667402063166</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04654047585892491</v>
+        <v>0.04885327275546478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>15695</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9044</v>
+        <v>9582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24815</v>
+        <v>25348</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04225385638141569</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02434796118707133</v>
+        <v>0.02579510090289713</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06680412430575379</v>
+        <v>0.06823862640259172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>24923</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16297</v>
+        <v>16127</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36543</v>
+        <v>35675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03413540038143625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02232024288392409</v>
+        <v>0.02208853122878095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05005010995956519</v>
+        <v>0.04886134077875039</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341978</v>
+        <v>341149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354321</v>
+        <v>354339</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9742724384636167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9534595241410748</v>
+        <v>0.9511467272445345</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987872549194057</v>
+        <v>0.9879233259793683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -1487,19 +1487,19 @@
         <v>355761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346641</v>
+        <v>346108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362412</v>
+        <v>361874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9577461436185843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9331958756942462</v>
+        <v>0.9317613735974083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9756520388129287</v>
+        <v>0.9742048990971028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -1508,19 +1508,19 @@
         <v>705204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>693584</v>
+        <v>694452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>713830</v>
+        <v>714000</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9658645996185637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9499498900404352</v>
+        <v>0.95113865922125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.977679757116076</v>
+        <v>0.977911468771219</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10905</v>
+        <v>10673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02280820784898342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008687328728256493</v>
+        <v>0.008670284620189969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05363609285511041</v>
+        <v>0.05249713976324771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1633,19 +1633,19 @@
         <v>10447</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4225</v>
+        <v>5169</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18466</v>
+        <v>19990</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05030735868397412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02034314119023709</v>
+        <v>0.02489078015256576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08891951945597676</v>
+        <v>0.09626022775104244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1654,19 +1654,19 @@
         <v>15084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8430</v>
+        <v>8024</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24855</v>
+        <v>25931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03670364947195148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02051166126817819</v>
+        <v>0.01952535480133371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06047909667714886</v>
+        <v>0.06309556765861357</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>198671</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192403</v>
+        <v>192635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201542</v>
+        <v>201545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9771917921510166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9463639071448892</v>
+        <v>0.9475028602367527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9913126712717435</v>
+        <v>0.9913297153798101</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>189</v>
@@ -1704,19 +1704,19 @@
         <v>197221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189202</v>
+        <v>187678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203443</v>
+        <v>202499</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9496926413160259</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9110804805440232</v>
+        <v>0.903739772248958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9796568588097625</v>
+        <v>0.9751092198474345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>390</v>
@@ -1725,19 +1725,19 @@
         <v>395892</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386121</v>
+        <v>385045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402546</v>
+        <v>402952</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9632963505280485</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9395209033228513</v>
+        <v>0.9369044323413864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9794883387318218</v>
+        <v>0.9804746451986662</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>12061</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6424</v>
+        <v>6170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20713</v>
+        <v>20474</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04336074045255671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02309670438107408</v>
+        <v>0.02218262511459382</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07446931207770316</v>
+        <v>0.0736089149025546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1863,19 +1863,19 @@
         <v>12061</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6462</v>
+        <v>5516</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19853</v>
+        <v>19897</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02196997878625832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0117712732864777</v>
+        <v>0.01004886431399137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03616433237539472</v>
+        <v>0.03624446300768632</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>266083</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257431</v>
+        <v>257670</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271720</v>
+        <v>271974</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9566392595474433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9255306879222971</v>
+        <v>0.9263910850974469</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.976903295618926</v>
+        <v>0.9778173748854067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1926,19 +1926,19 @@
         <v>536894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529102</v>
+        <v>529058</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542493</v>
+        <v>543439</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9780300212137417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9638356676246055</v>
+        <v>0.9637555369923134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9882287267135225</v>
+        <v>0.9899511356860085</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>19782</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12705</v>
+        <v>12280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29991</v>
+        <v>29315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03216396646126102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02065808079434225</v>
+        <v>0.01996683693721137</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0487638474502133</v>
+        <v>0.04766379220144821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2051,19 +2051,19 @@
         <v>37055</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25893</v>
+        <v>26143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49335</v>
+        <v>50074</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05805930817937669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04057010189328666</v>
+        <v>0.04096309240798299</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07730036001223517</v>
+        <v>0.07845940712736928</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2072,19 +2072,19 @@
         <v>56836</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44260</v>
+        <v>43636</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72662</v>
+        <v>73076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04535124137133349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03531614266062712</v>
+        <v>0.03481872531620581</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0579790737437171</v>
+        <v>0.05830898420303218</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>595245</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>585036</v>
+        <v>585712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>602322</v>
+        <v>602747</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9678360335387389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9512361525497867</v>
+        <v>0.9523362077985518</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9793419192056577</v>
+        <v>0.9800331630627885</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>584</v>
@@ -2122,19 +2122,19 @@
         <v>601164</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>588884</v>
+        <v>588145</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>612326</v>
+        <v>612076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9419406918206233</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9226996399877648</v>
+        <v>0.9215405928726306</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9594298981067135</v>
+        <v>0.9590369075920169</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -2143,19 +2143,19 @@
         <v>1196410</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1180584</v>
+        <v>1180170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1208986</v>
+        <v>1209610</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9546487586286665</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9420209262562829</v>
+        <v>0.9416910157969678</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9646838573393728</v>
+        <v>0.9651812746837941</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>51923</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38859</v>
+        <v>40079</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66416</v>
+        <v>68696</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06980781803549273</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05224425473096645</v>
+        <v>0.0538849460224408</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0892930748976789</v>
+        <v>0.09235840962728604</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2268,19 +2268,19 @@
         <v>69152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53354</v>
+        <v>54485</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86177</v>
+        <v>88259</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08825967459505063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0680961740862101</v>
+        <v>0.0695397424860453</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1099877954299313</v>
+        <v>0.1126450341851775</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>119</v>
@@ -2289,19 +2289,19 @@
         <v>121075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101659</v>
+        <v>102182</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143248</v>
+        <v>143137</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0792736567008408</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06656123525061478</v>
+        <v>0.06690352834142568</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09379130902686059</v>
+        <v>0.09371831460536047</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>691872</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>677379</v>
+        <v>675099</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>704936</v>
+        <v>703716</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9301921819645073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9107069251023212</v>
+        <v>0.907641590372714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9477557452690336</v>
+        <v>0.9461150539775592</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>681</v>
@@ -2339,19 +2339,19 @@
         <v>714359</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>697334</v>
+        <v>695252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>730157</v>
+        <v>729026</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9117403254049493</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8900122045700686</v>
+        <v>0.8873549658148228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.93190382591379</v>
+        <v>0.9304602575139548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1362</v>
@@ -2360,19 +2360,19 @@
         <v>1406231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1384058</v>
+        <v>1384169</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1425647</v>
+        <v>1425124</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9207263432991591</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9062086909731394</v>
+        <v>0.9062816853946396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9334387647493853</v>
+        <v>0.9330964716585743</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>111838</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03413277547467264</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>218</v>
@@ -2485,19 +2485,19 @@
         <v>226549</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06704220913826139</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>334</v>
@@ -2506,19 +2506,19 @@
         <v>338386</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05084127958350297</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>3164705</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3142336</v>
+        <v>3145104</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3183762</v>
+        <v>3182916</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9658672245253274</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9590401375536898</v>
+        <v>0.9598847291182853</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9716831501878214</v>
+        <v>0.9714249392423752</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3079</v>
@@ -2556,19 +2556,19 @@
         <v>3152648</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3121412</v>
+        <v>3120127</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3184059</v>
+        <v>3180407</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9329577908617386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9237140365327977</v>
+        <v>0.9233339519868029</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9422531785775206</v>
+        <v>0.9411725449832071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6177</v>
@@ -2577,19 +2577,19 @@
         <v>6317355</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6279476</v>
+        <v>6282333</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6352556</v>
+        <v>6351656</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9491587204164971</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9434675454329475</v>
+        <v>0.9438969138112202</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9544476425035028</v>
+        <v>0.9543123025656122</v>
       </c>
     </row>
     <row r="30">
@@ -2925,19 +2925,19 @@
         <v>12758</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7392</v>
+        <v>6863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21742</v>
+        <v>22056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04328438981852703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02507922786550337</v>
+        <v>0.02328570109562461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07376703459838808</v>
+        <v>0.07483278305242602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2946,19 +2946,19 @@
         <v>26072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17449</v>
+        <v>16964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38893</v>
+        <v>38404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09076403288544943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06074721560756284</v>
+        <v>0.05905722100602321</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1353991568597714</v>
+        <v>0.1336982722296995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2967,19 +2967,19 @@
         <v>38829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27202</v>
+        <v>28385</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53650</v>
+        <v>53148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06671856119255876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04674087605264603</v>
+        <v>0.0487730176276886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09218540631368299</v>
+        <v>0.09132306441877786</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>281980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>272996</v>
+        <v>272682</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287346</v>
+        <v>287875</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.956715610181473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9262329654016126</v>
+        <v>0.9251672169475744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9749207721344967</v>
+        <v>0.9767142989043754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>233</v>
@@ -3017,19 +3017,19 @@
         <v>261173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248352</v>
+        <v>248841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269796</v>
+        <v>270281</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9092359671145506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8646008431402287</v>
+        <v>0.8663017277703006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9392527843924372</v>
+        <v>0.9409427789939768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>503</v>
@@ -3038,19 +3038,19 @@
         <v>543154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>528333</v>
+        <v>528835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>554781</v>
+        <v>553598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9332814388074413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9078145936863171</v>
+        <v>0.9086769355812222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9532591239473541</v>
+        <v>0.9512269823723115</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>25219</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15825</v>
+        <v>15716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38505</v>
+        <v>38874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04988715445420154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03130353541935794</v>
+        <v>0.03108773819696482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0761689420014358</v>
+        <v>0.07689851314257255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3163,19 +3163,19 @@
         <v>49262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36323</v>
+        <v>36288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65294</v>
+        <v>65642</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09405368738074388</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06934974132729606</v>
+        <v>0.06928339026733304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1246618427170078</v>
+        <v>0.1253263894036666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -3184,19 +3184,19 @@
         <v>74481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58767</v>
+        <v>58255</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93838</v>
+        <v>93531</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07236170826245983</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0570941923418431</v>
+        <v>0.05659697453485824</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09116756434928686</v>
+        <v>0.0908690620872778</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>480308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467022</v>
+        <v>466653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489702</v>
+        <v>489811</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9501128455457984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9238310579985641</v>
+        <v>0.9231014868574273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.968696464580642</v>
+        <v>0.9689122618030351</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -3234,19 +3234,19 @@
         <v>474503</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458471</v>
+        <v>458123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>487442</v>
+        <v>487477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9059463126192562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8753381572829921</v>
+        <v>0.8746736105963334</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9306502586727039</v>
+        <v>0.930716609732667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>886</v>
@@ -3255,19 +3255,19 @@
         <v>954811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>935454</v>
+        <v>935761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970525</v>
+        <v>971037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9276382917375402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9088324356507133</v>
+        <v>0.9091309379127223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9429058076581569</v>
+        <v>0.9434030254651418</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>9108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4012</v>
+        <v>4049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18584</v>
+        <v>18165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02810583831631742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01238100753470406</v>
+        <v>0.01249602132528113</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05735083318008873</v>
+        <v>0.05605569948336767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3380,19 +3380,19 @@
         <v>28669</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19669</v>
+        <v>18639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41006</v>
+        <v>40277</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08406855211132751</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05767628149911457</v>
+        <v>0.05465654529120355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1202438168371245</v>
+        <v>0.1181086676709912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3401,19 +3401,19 @@
         <v>37777</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26985</v>
+        <v>26291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52486</v>
+        <v>51615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05680134351209778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04057447346714713</v>
+        <v>0.03953085370342204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07891914526948864</v>
+        <v>0.07760864964325263</v>
       </c>
     </row>
     <row r="11">
@@ -3430,19 +3430,19 @@
         <v>314938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305462</v>
+        <v>305881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320034</v>
+        <v>319997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9718941616836826</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9426491668199113</v>
+        <v>0.9439443005166324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9876189924652959</v>
+        <v>0.9875039786747188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>291</v>
@@ -3451,19 +3451,19 @@
         <v>312351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300014</v>
+        <v>300743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>321351</v>
+        <v>322381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9159314478886725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8797561831628754</v>
+        <v>0.881891332329009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9423237185008855</v>
+        <v>0.9453434547087965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>602</v>
@@ -3472,19 +3472,19 @@
         <v>627289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612580</v>
+        <v>613451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638081</v>
+        <v>638775</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9431986564879022</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9210808547305113</v>
+        <v>0.9223913503567475</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.959425526532852</v>
+        <v>0.9604691462965781</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>15368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9464</v>
+        <v>8602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25982</v>
+        <v>24852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04109177981358057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02530522509868714</v>
+        <v>0.02300116717986463</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06947526400632101</v>
+        <v>0.0664528323306426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3597,19 +3597,19 @@
         <v>54962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42417</v>
+        <v>43260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69099</v>
+        <v>69731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1413075969349551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090560069276942</v>
+        <v>0.1112221567490091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1776545280407237</v>
+        <v>0.1792806961576292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -3618,19 +3618,19 @@
         <v>70329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55144</v>
+        <v>55150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87952</v>
+        <v>87817</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09218281429688922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07227925418623868</v>
+        <v>0.07228667523493994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1152815425301968</v>
+        <v>0.1151044335694279</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>358614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348000</v>
+        <v>349130</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364518</v>
+        <v>365380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9589082201864194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305247359936789</v>
+        <v>0.9335471676693571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9746947749013125</v>
+        <v>0.976998832820135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -3668,19 +3668,19 @@
         <v>333989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319852</v>
+        <v>319220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346534</v>
+        <v>345691</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8586924030650449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8223454719592763</v>
+        <v>0.8207193038423708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8909439930723059</v>
+        <v>0.8887778432509907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>647</v>
@@ -3689,19 +3689,19 @@
         <v>692604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>674981</v>
+        <v>675116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707789</v>
+        <v>707783</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9078171857031108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8847184574698033</v>
+        <v>0.8848955664305722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9277207458137617</v>
+        <v>0.9277133247650601</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>18635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12184</v>
+        <v>11181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29555</v>
+        <v>28698</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0876448482651162</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0573025736363736</v>
+        <v>0.05258629844219902</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1390065611513822</v>
+        <v>0.1349737951559508</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -3814,19 +3814,19 @@
         <v>38301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27705</v>
+        <v>27591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51143</v>
+        <v>50948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1744179914724683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1261658092624248</v>
+        <v>0.1256477366815261</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2329016162651256</v>
+        <v>0.2320147903537598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -3835,19 +3835,19 @@
         <v>56935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42533</v>
+        <v>42878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71462</v>
+        <v>72321</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1317313886993655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09840954995987546</v>
+        <v>0.09920773594034968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.165341621069071</v>
+        <v>0.1673294776079177</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>193983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183063</v>
+        <v>183920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200434</v>
+        <v>201437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9123551517348838</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8609934388486177</v>
+        <v>0.8650262048440492</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9426974263636264</v>
+        <v>0.9474137015578009</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -3885,19 +3885,19 @@
         <v>181290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168448</v>
+        <v>168643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191886</v>
+        <v>192000</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8255820085275317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7670983837348744</v>
+        <v>0.7679852096462403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8738341907375753</v>
+        <v>0.874352263318474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>356</v>
@@ -3906,19 +3906,19 @@
         <v>375274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>360747</v>
+        <v>359888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>389676</v>
+        <v>389331</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8682686113006345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.834658378930929</v>
+        <v>0.8326705223920823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9015904500401246</v>
+        <v>0.9007922640596504</v>
       </c>
     </row>
     <row r="18">
@@ -4010,19 +4010,19 @@
         <v>13464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7117</v>
+        <v>7233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21573</v>
+        <v>22481</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04914329432616877</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02597598259392321</v>
+        <v>0.02640039873525447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07873832029446999</v>
+        <v>0.08205341586242342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4031,19 +4031,19 @@
         <v>18648</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11353</v>
+        <v>11404</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28426</v>
+        <v>27613</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06659271518471263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04054315895841191</v>
+        <v>0.0407249785437326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1015097499261742</v>
+        <v>0.09860664487741908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -4052,19 +4052,19 @@
         <v>32112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22585</v>
+        <v>22480</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44252</v>
+        <v>44216</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05796328148249301</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04076678004638498</v>
+        <v>0.04057660537115672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07987612169376254</v>
+        <v>0.07981002616844909</v>
       </c>
     </row>
     <row r="20">
@@ -4081,19 +4081,19 @@
         <v>260517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252408</v>
+        <v>251500</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266864</v>
+        <v>266748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9508567056738312</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9212616797055302</v>
+        <v>0.9179465841375773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9740240174060768</v>
+        <v>0.9735996012647457</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -4102,19 +4102,19 @@
         <v>261383</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>251605</v>
+        <v>252418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268678</v>
+        <v>268627</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9334072848152873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8984902500738265</v>
+        <v>0.901393355122581</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9594568410415883</v>
+        <v>0.9592750214562675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>499</v>
@@ -4123,19 +4123,19 @@
         <v>521900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>509760</v>
+        <v>509796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531427</v>
+        <v>531532</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.942036718517507</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9201238783062373</v>
+        <v>0.9201899738315509</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9592332199536149</v>
+        <v>0.9594233946288433</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>21246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12900</v>
+        <v>13060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32092</v>
+        <v>31653</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03205501151553335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01946358972905699</v>
+        <v>0.0197042993039766</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04841945502748986</v>
+        <v>0.04775672582633125</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -4248,19 +4248,19 @@
         <v>68542</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53713</v>
+        <v>52173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87370</v>
+        <v>86178</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09878527371208694</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07741260510160046</v>
+        <v>0.07519355511281307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1259199255206737</v>
+        <v>0.12420228194457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -4269,19 +4269,19 @@
         <v>89788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71642</v>
+        <v>71600</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109481</v>
+        <v>111091</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06618415129668218</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05280841748165604</v>
+        <v>0.05277715511022615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0806998356126537</v>
+        <v>0.08188714598297868</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>641542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>630696</v>
+        <v>631135</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>649888</v>
+        <v>649728</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9679449884844666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9515805449725102</v>
+        <v>0.9522432741736694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9805364102709431</v>
+        <v>0.9802957006960236</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>575</v>
@@ -4319,19 +4319,19 @@
         <v>625311</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>606483</v>
+        <v>607675</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>640140</v>
+        <v>641680</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9012147262879131</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8740800744793263</v>
+        <v>0.8757977180554301</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9225873948983996</v>
+        <v>0.924806444887187</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1173</v>
@@ -4340,19 +4340,19 @@
         <v>1266853</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1247160</v>
+        <v>1245550</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1284999</v>
+        <v>1285041</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9338158487033178</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9193001643873461</v>
+        <v>0.9181128540170213</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9471915825183435</v>
+        <v>0.9472228448897738</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>14055</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7579</v>
+        <v>7775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22933</v>
+        <v>22801</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01803958729198466</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009728542399917092</v>
+        <v>0.009979917083617852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02943554193212048</v>
+        <v>0.02926562427873901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -4465,19 +4465,19 @@
         <v>66551</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51974</v>
+        <v>51794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83581</v>
+        <v>83822</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0807801032350533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06308596676102533</v>
+        <v>0.06286838475785235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1014512585005342</v>
+        <v>0.1017444604717701</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>74</v>
@@ -4486,19 +4486,19 @@
         <v>80606</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63787</v>
+        <v>63012</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100275</v>
+        <v>99136</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0502857093704643</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03979334168754779</v>
+        <v>0.03931030363547435</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06255675672004134</v>
+        <v>0.06184564820130198</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>765043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>756165</v>
+        <v>756297</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>771519</v>
+        <v>771323</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9819604127080154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9705644580678794</v>
+        <v>0.970734375721261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9902714576000829</v>
+        <v>0.990020082916382</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>696</v>
@@ -4536,19 +4536,19 @@
         <v>757302</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>740272</v>
+        <v>740031</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>771879</v>
+        <v>772059</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9192198967649466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8985487414994657</v>
+        <v>0.8982555395282298</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9369140332389746</v>
+        <v>0.9371316152421476</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1400</v>
@@ -4557,19 +4557,19 @@
         <v>1522345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1502676</v>
+        <v>1503815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1539164</v>
+        <v>1539939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9497142906295357</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9374432432799586</v>
+        <v>0.9381543517986978</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9602066583124521</v>
+        <v>0.9606896963645256</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>129852</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03789317921906614</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>323</v>
@@ -4682,19 +4682,19 @@
         <v>351006</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09864415026248594</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>441</v>
@@ -4703,19 +4703,19 @@
         <v>480858</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06884063957846386</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>3296927</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3273218</v>
+        <v>3271439</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3318840</v>
+        <v>3318293</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9621068207809339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9551880857034629</v>
+        <v>0.9546689125861542</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.968501274528518</v>
+        <v>0.9683417333408629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2975</v>
@@ -4753,19 +4753,19 @@
         <v>3207303</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3169666</v>
+        <v>3167804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3240947</v>
+        <v>3242598</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.901355849737514</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.890778729416022</v>
+        <v>0.8902553303253768</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9108108767556098</v>
+        <v>0.9112749139015597</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6066</v>
@@ -4774,19 +4774,19 @@
         <v>6504230</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6460725</v>
+        <v>6454372</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6546543</v>
+        <v>6544938</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9311593604215361</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9249310282991222</v>
+        <v>0.9240215142655951</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9372170065056492</v>
+        <v>0.9369872308195984</v>
       </c>
     </row>
     <row r="30">
@@ -5122,19 +5122,19 @@
         <v>13823</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7981</v>
+        <v>8131</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23067</v>
+        <v>22974</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04705597004487182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02716950771555616</v>
+        <v>0.02767993241609461</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07852305187146183</v>
+        <v>0.07820749116583121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -5143,19 +5143,19 @@
         <v>38772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27868</v>
+        <v>27721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52139</v>
+        <v>53000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.134298242207119</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09652820117459099</v>
+        <v>0.09601748768288622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1805962185100496</v>
+        <v>0.1835804228592136</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -5164,19 +5164,19 @@
         <v>52596</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40069</v>
+        <v>39454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68314</v>
+        <v>67371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09029830889813725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.068791504744436</v>
+        <v>0.06773686403237034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1172846651073604</v>
+        <v>0.1156657866341612</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5193,19 @@
         <v>279938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270694</v>
+        <v>270787</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285780</v>
+        <v>285630</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9529440299551282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9214769481285382</v>
+        <v>0.9217925088341686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.972830492284444</v>
+        <v>0.9723200675839052</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>242</v>
@@ -5214,19 +5214,19 @@
         <v>249931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236564</v>
+        <v>235703</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260835</v>
+        <v>260982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8657017577928811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8194037814899504</v>
+        <v>0.8164195771407862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.903471798825409</v>
+        <v>0.9039825123171136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>494</v>
@@ -5235,19 +5235,19 @@
         <v>529868</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>514150</v>
+        <v>515093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>542395</v>
+        <v>543010</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9097016911018627</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8827153348926395</v>
+        <v>0.8843342133658388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9312084952555634</v>
+        <v>0.9322631359676297</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>7652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3667</v>
+        <v>3461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15230</v>
+        <v>14388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01522503349969913</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007296139664822125</v>
+        <v>0.006886206430333792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03030344036251529</v>
+        <v>0.02862786094896935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -5360,19 +5360,19 @@
         <v>30353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20050</v>
+        <v>19674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42673</v>
+        <v>42841</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05802773844299574</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03832951587048344</v>
+        <v>0.03761089182666981</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08157912918189651</v>
+        <v>0.08190016294544895</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -5381,19 +5381,19 @@
         <v>38005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25747</v>
+        <v>27358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51804</v>
+        <v>52716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03705431810637311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02510303920715628</v>
+        <v>0.0266738274404117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05050757868705411</v>
+        <v>0.05139729765228129</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>494923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487345</v>
+        <v>488187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498908</v>
+        <v>499114</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9847749665003008</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9696965596374848</v>
+        <v>0.9713721390510307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9927038603351779</v>
+        <v>0.9931137935696661</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>458</v>
@@ -5431,19 +5431,19 @@
         <v>492731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>480411</v>
+        <v>480243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503034</v>
+        <v>503410</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9419722615570043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9184208708181035</v>
+        <v>0.9180998370545511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9616704841295165</v>
+        <v>0.9623891081733302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>925</v>
@@ -5452,19 +5452,19 @@
         <v>987654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>973855</v>
+        <v>972943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>999912</v>
+        <v>998301</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9629456818936268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9494924213129459</v>
+        <v>0.9486027023477189</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9748969607928439</v>
+        <v>0.9733261725595885</v>
       </c>
     </row>
     <row r="9">
@@ -5556,19 +5556,19 @@
         <v>4885</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2183</v>
+        <v>1709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10490</v>
+        <v>9712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01533296543840791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006852424532641138</v>
+        <v>0.005366218442593859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03292845163821333</v>
+        <v>0.03048811437861355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5577,19 +5577,19 @@
         <v>20782</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13005</v>
+        <v>12836</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33703</v>
+        <v>33620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06179326377093085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03867037433213192</v>
+        <v>0.03816714207034209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1002136238227446</v>
+        <v>0.09996752470432473</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -5598,19 +5598,19 @@
         <v>25666</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16576</v>
+        <v>16616</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37104</v>
+        <v>37328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03919254235584876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0253123347422337</v>
+        <v>0.02537281453699961</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05665830118911851</v>
+        <v>0.057000730948778</v>
       </c>
     </row>
     <row r="11">
@@ -5627,19 +5627,19 @@
         <v>313680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308075</v>
+        <v>308853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316382</v>
+        <v>316856</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9846670345615921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9670715483617867</v>
+        <v>0.9695118856213865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931475754673587</v>
+        <v>0.9946337815574061</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -5648,19 +5648,19 @@
         <v>315527</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302606</v>
+        <v>302689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323304</v>
+        <v>323473</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9382067362290691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8997863761772555</v>
+        <v>0.9000324752956754</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613296256678682</v>
+        <v>0.961832857929658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -5669,19 +5669,19 @@
         <v>629208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617770</v>
+        <v>617546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638298</v>
+        <v>638258</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9608074576441512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.943341698810881</v>
+        <v>0.9429992690512219</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9746876652577661</v>
+        <v>0.9746271854630004</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>19501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12233</v>
+        <v>12000</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29065</v>
+        <v>29225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05271010953221748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03306406597064479</v>
+        <v>0.0324344885769727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07856070037454446</v>
+        <v>0.07899324468377787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -5794,19 +5794,19 @@
         <v>51804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40379</v>
+        <v>39154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68485</v>
+        <v>67466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1337622155050327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1042628083454344</v>
+        <v>0.101100444599769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1768341648208448</v>
+        <v>0.1742036187226482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -5815,19 +5815,19 @@
         <v>71305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55650</v>
+        <v>55836</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90394</v>
+        <v>90605</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09416303422714331</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07348926448861282</v>
+        <v>0.07373519032170517</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1193723482470164</v>
+        <v>0.1196503961945544</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>350463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340899</v>
+        <v>340739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357731</v>
+        <v>357964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9472898904677826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9214392996254556</v>
+        <v>0.921006755316222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9669359340293553</v>
+        <v>0.9675655114230273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -5865,19 +5865,19 @@
         <v>335479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318798</v>
+        <v>319817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346904</v>
+        <v>348129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8662377844949672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.823165835179155</v>
+        <v>0.8257963812773518</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8957371916545653</v>
+        <v>0.8988995554002314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>647</v>
@@ -5886,19 +5886,19 @@
         <v>685942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>666853</v>
+        <v>666642</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>701597</v>
+        <v>701411</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9058369657728567</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8806276517529836</v>
+        <v>0.8803496038054456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9265107355113872</v>
+        <v>0.9262648096782948</v>
       </c>
     </row>
     <row r="15">
@@ -5990,19 +5990,19 @@
         <v>9505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4693</v>
+        <v>4806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16046</v>
+        <v>16626</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04500023486807675</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02221860500873186</v>
+        <v>0.02275156035020028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07596987213749329</v>
+        <v>0.07871534412834162</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -6011,19 +6011,19 @@
         <v>23124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14475</v>
+        <v>14984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32911</v>
+        <v>32918</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1057880787711575</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06621897156457471</v>
+        <v>0.06855077117607124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1505616885060418</v>
+        <v>0.1505966410465925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -6032,19 +6032,19 @@
         <v>32629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22686</v>
+        <v>22407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44889</v>
+        <v>43967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0759150444785827</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0527820417629372</v>
+        <v>0.05213268041379886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1044396436541601</v>
+        <v>0.1022941837010539</v>
       </c>
     </row>
     <row r="17">
@@ -6061,19 +6061,19 @@
         <v>201716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195175</v>
+        <v>194595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206528</v>
+        <v>206415</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9549997651319232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9240301278625068</v>
+        <v>0.9212846558716588</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9777813949912681</v>
+        <v>0.9772484396497998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -6082,19 +6082,19 @@
         <v>195463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185676</v>
+        <v>185669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204112</v>
+        <v>203603</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8942119212288425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8494383114939581</v>
+        <v>0.8494033589534074</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9337810284354252</v>
+        <v>0.9314492288239287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>403</v>
@@ -6103,19 +6103,19 @@
         <v>397179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384919</v>
+        <v>385841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407122</v>
+        <v>407401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9240849555214173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8955603563458399</v>
+        <v>0.897705816298946</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9472179582370627</v>
+        <v>0.9478673195862011</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>9883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5124</v>
+        <v>4877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17351</v>
+        <v>17545</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03755941183530437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01947550779632988</v>
+        <v>0.01853421768234041</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06594442810017381</v>
+        <v>0.06668007618054288</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6228,19 +6228,19 @@
         <v>18096</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10846</v>
+        <v>10859</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28939</v>
+        <v>28980</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06625776427572606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03971244090840625</v>
+        <v>0.03975876182867358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1059591530119399</v>
+        <v>0.106108058903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -6249,19 +6249,19 @@
         <v>27979</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18568</v>
+        <v>19221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39580</v>
+        <v>40033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05217596371127987</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03462685811533431</v>
+        <v>0.0358440993757181</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07380965550600542</v>
+        <v>0.07465601336531472</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>253240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245772</v>
+        <v>245578</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257999</v>
+        <v>258246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9624405881646956</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9340555718998262</v>
+        <v>0.9333199238194575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9805244922036703</v>
+        <v>0.9814657823176596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -6299,19 +6299,19 @@
         <v>255019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>244176</v>
+        <v>244135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262269</v>
+        <v>262256</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.933742235724274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8940408469880602</v>
+        <v>0.8938919410970002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9602875590915937</v>
+        <v>0.9602412381713264</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>495</v>
@@ -6320,19 +6320,19 @@
         <v>508259</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>496658</v>
+        <v>496205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517670</v>
+        <v>517017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9478240362887201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9261903444939946</v>
+        <v>0.9253439866346853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9653731418846657</v>
+        <v>0.964155900624282</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>27437</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17727</v>
+        <v>18216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39399</v>
+        <v>39654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04178884810835288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02700048905138652</v>
+        <v>0.02774434806757767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0600083491899893</v>
+        <v>0.06039700974271696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -6445,19 +6445,19 @@
         <v>74432</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58121</v>
+        <v>59625</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91685</v>
+        <v>92474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1076699891243201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08407515655415629</v>
+        <v>0.0862506254320619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1326285313268195</v>
+        <v>0.1337698851453279</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>92</v>
@@ -6466,19 +6466,19 @@
         <v>101868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82521</v>
+        <v>83266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>123503</v>
+        <v>124014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07557834251243635</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06122392792159432</v>
+        <v>0.06177708578051665</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09162985331088271</v>
+        <v>0.09200886404232064</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>629121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>617159</v>
+        <v>616904</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638831</v>
+        <v>638342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9582111518916471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9399916508100106</v>
+        <v>0.9396029902572823</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9729995109486135</v>
+        <v>0.9722556519324222</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>580</v>
@@ -6516,19 +6516,19 @@
         <v>616862</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>599609</v>
+        <v>598820</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>633173</v>
+        <v>631669</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8923300108756799</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8673714686731804</v>
+        <v>0.8662301148546722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9159248434458436</v>
+        <v>0.9137493745679381</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1134</v>
@@ -6537,19 +6537,19 @@
         <v>1245984</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1224349</v>
+        <v>1223838</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1265331</v>
+        <v>1264586</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9244216574875637</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9083701466891178</v>
+        <v>0.9079911359576794</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9387760720784057</v>
+        <v>0.9382229142194835</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>26799</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18223</v>
+        <v>17562</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39235</v>
+        <v>38260</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03442045518807711</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02340475621803426</v>
+        <v>0.02255682029867005</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05039258976986214</v>
+        <v>0.04914001496913335</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -6662,19 +6662,19 @@
         <v>89828</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70108</v>
+        <v>72752</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>112562</v>
+        <v>111681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1087291560620927</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0848594156062142</v>
+        <v>0.08805930275688101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1362457530157169</v>
+        <v>0.1351794705487463</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>101</v>
@@ -6683,19 +6683,19 @@
         <v>116628</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96417</v>
+        <v>95224</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140395</v>
+        <v>138961</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07267650545728895</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06008245275867032</v>
+        <v>0.05933906556506188</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08748725234143824</v>
+        <v>0.08659343739274145</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>751784</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>739348</v>
+        <v>740323</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>760360</v>
+        <v>761021</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9655795448119229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9496074102301378</v>
+        <v>0.9508599850308667</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9765952437819657</v>
+        <v>0.97744317970133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>680</v>
@@ -6733,19 +6733,19 @@
         <v>736339</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>713605</v>
+        <v>714486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>756059</v>
+        <v>753415</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8912708439379072</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8637542469842834</v>
+        <v>0.8648205294512539</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9151405843937859</v>
+        <v>0.9119406972431191</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1404</v>
@@ -6754,19 +6754,19 @@
         <v>1488122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1464355</v>
+        <v>1465789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1508333</v>
+        <v>1509526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.927323494542711</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9125127476585618</v>
+        <v>0.9134065626072587</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9399175472413297</v>
+        <v>0.940660934434938</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>119484</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03520085888637804</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>303</v>
@@ -6879,19 +6879,19 @@
         <v>347191</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0979509047708593</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>424</v>
@@ -6900,19 +6900,19 @@
         <v>466675</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06725499117573665</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>3274866</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3251930</v>
+        <v>3251037</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3294835</v>
+        <v>3293636</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.964799141113622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9580418995467415</v>
+        <v>0.9577789531143874</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9706821352733064</v>
+        <v>0.9703290334393415</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3035</v>
@@ -6950,19 +6950,19 @@
         <v>3197351</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3159188</v>
+        <v>3155530</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3234682</v>
+        <v>3230719</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9020490952291407</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8912824232954561</v>
+        <v>0.8902503433874673</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9125809913538885</v>
+        <v>0.9114631702974304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6145</v>
@@ -6971,19 +6971,19 @@
         <v>6472217</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6425495</v>
+        <v>6426200</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6514430</v>
+        <v>6514763</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9327450088242634</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9260116570747864</v>
+        <v>0.9261132527004188</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9388285849248049</v>
+        <v>0.9388766230083238</v>
       </c>
     </row>
     <row r="30">
@@ -7319,19 +7319,19 @@
         <v>7931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4223</v>
+        <v>3979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15145</v>
+        <v>13905</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02487378495305972</v>
+        <v>0.02487378495305973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01324370625931632</v>
+        <v>0.01247957215928859</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04750083529346118</v>
+        <v>0.04361037409166821</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -7340,19 +7340,19 @@
         <v>18988</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13653</v>
+        <v>13441</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25700</v>
+        <v>25144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06007750121892034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04319833956698583</v>
+        <v>0.04252516223242169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0813144375251708</v>
+        <v>0.07955467026388563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -7361,19 +7361,19 @@
         <v>26919</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19793</v>
+        <v>20008</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35425</v>
+        <v>36013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04239844297922084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03117433387191123</v>
+        <v>0.03151396598572204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05579553385623192</v>
+        <v>0.05672118230308833</v>
       </c>
     </row>
     <row r="5">
@@ -7390,19 +7390,19 @@
         <v>310914</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303700</v>
+        <v>304940</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314622</v>
+        <v>314866</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.97512621504694</v>
+        <v>0.9751262150469404</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9524991647065392</v>
+        <v>0.9563896259083319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9867562937406837</v>
+        <v>0.9875204278407114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>501</v>
@@ -7411,19 +7411,19 @@
         <v>297073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290361</v>
+        <v>290917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302408</v>
+        <v>302620</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9399224987810795</v>
+        <v>0.9399224987810797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9186855624748292</v>
+        <v>0.9204453297361143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9568016604330143</v>
+        <v>0.9574748377675784</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>822</v>
@@ -7432,19 +7432,19 @@
         <v>607987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>599481</v>
+        <v>598893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>615113</v>
+        <v>614898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9576015570207792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.944204466143768</v>
+        <v>0.9432788176969117</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9688256661280887</v>
+        <v>0.968486034014278</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>31528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20923</v>
+        <v>21808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43842</v>
+        <v>45132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05941332462581489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03942972674884896</v>
+        <v>0.04109634596271487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08262043075060065</v>
+        <v>0.08505046877484698</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -7557,19 +7557,19 @@
         <v>73960</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61466</v>
+        <v>61505</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87976</v>
+        <v>88287</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1353351092180337</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1124724250428181</v>
+        <v>0.1125442197791065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1609825757002591</v>
+        <v>0.1615524689865017</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -7578,19 +7578,19 @@
         <v>105487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89031</v>
+        <v>90221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126018</v>
+        <v>124361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09793271295234253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08265459681227229</v>
+        <v>0.08375999430084183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1169926593369258</v>
+        <v>0.1154544343856021</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>499119</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486805</v>
+        <v>485515</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>509724</v>
+        <v>508839</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9405866753741851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9173795692493991</v>
+        <v>0.9149495312251524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9605702732511506</v>
+        <v>0.9589036540372849</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>606</v>
@@ -7628,19 +7628,19 @@
         <v>472534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458518</v>
+        <v>458207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485028</v>
+        <v>484989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8646648907819662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8390174242997408</v>
+        <v>0.8384475310134986</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8875275749571822</v>
+        <v>0.8874557802208936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>960</v>
@@ -7649,19 +7649,19 @@
         <v>971654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951123</v>
+        <v>952780</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>988110</v>
+        <v>986920</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9020672870476576</v>
+        <v>0.9020672870476575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8830073406630747</v>
+        <v>0.8845455656143977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9173454031877277</v>
+        <v>0.9162400056991582</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>39561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30018</v>
+        <v>31105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50363</v>
+        <v>51074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1251971127573385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09499454561048915</v>
+        <v>0.09843501403715699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1593792290196094</v>
+        <v>0.1616314259202652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -7774,19 +7774,19 @@
         <v>60792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49891</v>
+        <v>50592</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71847</v>
+        <v>72263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1705827969421796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1399945793750193</v>
+        <v>0.1419614881061731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.201601348954069</v>
+        <v>0.2027676971217734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -7795,19 +7795,19 @@
         <v>100354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86191</v>
+        <v>85624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116344</v>
+        <v>115032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1492530585091388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1281892723939159</v>
+        <v>0.1273461734817941</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1730347707415694</v>
+        <v>0.1710825579800681</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>276432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>265630</v>
+        <v>264919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285975</v>
+        <v>284888</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8748028872426616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8406207709803907</v>
+        <v>0.8383685740797349</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.905005454389511</v>
+        <v>0.901564985962843</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>422</v>
@@ -7845,19 +7845,19 @@
         <v>295589</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>284534</v>
+        <v>284118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306490</v>
+        <v>305789</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8294172030578205</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7983986510459309</v>
+        <v>0.7972323028782264</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8600054206249808</v>
+        <v>0.8580385118938267</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>724</v>
@@ -7866,19 +7866,19 @@
         <v>572021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>556031</v>
+        <v>557343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586184</v>
+        <v>586751</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8507469414908615</v>
+        <v>0.8507469414908613</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8269652292584305</v>
+        <v>0.8289174420199319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8718107276060842</v>
+        <v>0.8726538265182059</v>
       </c>
     </row>
     <row r="12">
@@ -7970,19 +7970,19 @@
         <v>36085</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25912</v>
+        <v>25973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50123</v>
+        <v>47931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09670591269063789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06944126236768351</v>
+        <v>0.06960551996225212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1343254215576476</v>
+        <v>0.1284525797330101</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -7991,19 +7991,19 @@
         <v>66908</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55452</v>
+        <v>56546</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77870</v>
+        <v>79414</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1585634458876212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1314153860378774</v>
+        <v>0.1340075793525296</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.184543198368784</v>
+        <v>0.1882031415484177</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -8012,19 +8012,19 @@
         <v>102993</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86714</v>
+        <v>85840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118769</v>
+        <v>119257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1295335746206734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1090591221442803</v>
+        <v>0.1079601195285865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1493749433273805</v>
+        <v>0.1499887170147792</v>
       </c>
     </row>
     <row r="14">
@@ -8041,19 +8041,19 @@
         <v>337060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323022</v>
+        <v>325214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347233</v>
+        <v>347172</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9032940873093621</v>
+        <v>0.9032940873093622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8656745784423524</v>
+        <v>0.8715474202669899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9305587376323166</v>
+        <v>0.9303944800377477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>461</v>
@@ -8062,19 +8062,19 @@
         <v>355053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344091</v>
+        <v>342547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366509</v>
+        <v>365415</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8414365541123789</v>
+        <v>0.8414365541123791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8154568016312157</v>
+        <v>0.8117968584515817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8685846139621226</v>
+        <v>0.8659924206474703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>709</v>
@@ -8083,19 +8083,19 @@
         <v>692114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>676338</v>
+        <v>675850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708393</v>
+        <v>709267</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8704664253793268</v>
+        <v>0.8704664253793265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8506250566726197</v>
+        <v>0.8500112829852206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.89094087785572</v>
+        <v>0.8920398804714136</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>18140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12733</v>
+        <v>12282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25362</v>
+        <v>24701</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08820381237249925</v>
+        <v>0.08820381237249922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06191121292948013</v>
+        <v>0.05971683975226812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1233155953051026</v>
+        <v>0.1201039388217207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>100</v>
@@ -8208,19 +8208,19 @@
         <v>39472</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32423</v>
+        <v>32891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47574</v>
+        <v>48150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1724284255917161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1416357645744087</v>
+        <v>0.1436816236339784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2078195997029336</v>
+        <v>0.2103377654388153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -8229,19 +8229,19 @@
         <v>57612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48388</v>
+        <v>48169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67390</v>
+        <v>66829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1325693907142034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1113443387829314</v>
+        <v>0.1108399208311676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.155068407474085</v>
+        <v>0.1537780285879069</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>187525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180303</v>
+        <v>180964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192932</v>
+        <v>193383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9117961876275008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8766844046948976</v>
+        <v>0.8798960611782795</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9380887870705202</v>
+        <v>0.9402831602477317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -8279,19 +8279,19 @@
         <v>189446</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181344</v>
+        <v>180768</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196495</v>
+        <v>196027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8275715744082841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7921804002970665</v>
+        <v>0.7896622345611849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8583642354255914</v>
+        <v>0.8563183763660223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>643</v>
@@ -8300,19 +8300,19 @@
         <v>376970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367192</v>
+        <v>367753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>386194</v>
+        <v>386413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8674306092857966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8449315925259149</v>
+        <v>0.846221971412093</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8886556612170687</v>
+        <v>0.8891600791688327</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>45800</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36365</v>
+        <v>36836</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55826</v>
+        <v>56450</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1691855388063667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1343317690712643</v>
+        <v>0.1360721310413355</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2062224645478423</v>
+        <v>0.2085287283311321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -8425,19 +8425,19 @@
         <v>73621</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63136</v>
+        <v>63912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84467</v>
+        <v>84644</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2791335568027491</v>
+        <v>0.2791335568027489</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2393782262675737</v>
+        <v>0.2423201699264507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3202533518921126</v>
+        <v>0.3209241648696955</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -8446,19 +8446,19 @@
         <v>119421</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104777</v>
+        <v>104698</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133167</v>
+        <v>134502</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2234439864043199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1960443103318922</v>
+        <v>0.19589640352581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2491635460153766</v>
+        <v>0.2516618276635476</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>224907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214881</v>
+        <v>214257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234342</v>
+        <v>233871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8308144611936333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7937775354521577</v>
+        <v>0.791471271668868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8656682309287357</v>
+        <v>0.8639278689586645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>296</v>
@@ -8496,19 +8496,19 @@
         <v>190129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179283</v>
+        <v>179106</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200614</v>
+        <v>199838</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.720866443197251</v>
+        <v>0.7208664431972508</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6797466481078873</v>
+        <v>0.6790758351303046</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7606217737324262</v>
+        <v>0.7576798300735494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>578</v>
@@ -8517,19 +8517,19 @@
         <v>415036</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>401290</v>
+        <v>399955</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>429680</v>
+        <v>429759</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7765560135956801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7508364539846233</v>
+        <v>0.7483381723364526</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8039556896681077</v>
+        <v>0.8041035964741902</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>67465</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53989</v>
+        <v>52364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85470</v>
+        <v>84359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09374241636892076</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07501697702976377</v>
+        <v>0.07275898006874369</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1187605067345118</v>
+        <v>0.117215773846467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -8642,19 +8642,19 @@
         <v>174948</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155844</v>
+        <v>155512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197712</v>
+        <v>197525</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2265999205781933</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2018559181662643</v>
+        <v>0.2014258824752851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.256084403589419</v>
+        <v>0.2558426564507274</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>312</v>
@@ -8663,19 +8663,19 @@
         <v>242413</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>216956</v>
+        <v>218239</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>267426</v>
+        <v>268157</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1625032414355015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1454377250593896</v>
+        <v>0.1462981506461138</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1792707578357955</v>
+        <v>0.1797604896228945</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>652222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>634217</v>
+        <v>635328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>665698</v>
+        <v>667323</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9062575836310793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8812394932654881</v>
+        <v>0.882784226153533</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9249830229702362</v>
+        <v>0.9272410199312562</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>717</v>
@@ -8713,19 +8713,19 @@
         <v>597109</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>574345</v>
+        <v>574532</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>616213</v>
+        <v>616545</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7734000794218067</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7439155964105808</v>
+        <v>0.7441573435492727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7981440818337356</v>
+        <v>0.7985741175247141</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1247</v>
@@ -8734,19 +8734,19 @@
         <v>1249331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1224318</v>
+        <v>1223587</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1274788</v>
+        <v>1273505</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8374967585644986</v>
+        <v>0.8374967585644987</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8207292421642043</v>
+        <v>0.8202395103771059</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.85456227494061</v>
+        <v>0.8537018493538864</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>50100</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38842</v>
+        <v>39894</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62930</v>
+        <v>64473</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0627763624720702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04866932622583806</v>
+        <v>0.04998737485568453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07885272114544399</v>
+        <v>0.08078543446085125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>157</v>
@@ -8859,19 +8859,19 @@
         <v>103717</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>88930</v>
+        <v>88522</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118931</v>
+        <v>119012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1247596299755419</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1069728080954422</v>
+        <v>0.1064825754963904</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1430609781001588</v>
+        <v>0.1431580239486716</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>220</v>
@@ -8880,19 +8880,19 @@
         <v>153817</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>135074</v>
+        <v>135517</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174971</v>
+        <v>176787</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09440060073226748</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0828975476055319</v>
+        <v>0.08316963000609914</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1073832316519937</v>
+        <v>0.1084979631837008</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>747972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>735142</v>
+        <v>733599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>759230</v>
+        <v>758178</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9372236375279298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9211472788545559</v>
+        <v>0.9192145655391486</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9513306737741618</v>
+        <v>0.9500126251443155</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>905</v>
@@ -8930,19 +8930,19 @@
         <v>727614</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>712400</v>
+        <v>712319</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>742401</v>
+        <v>742809</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8752403700244581</v>
+        <v>0.8752403700244582</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8569390218998412</v>
+        <v>0.8568419760513284</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8930271919045579</v>
+        <v>0.8935174245036097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1604</v>
@@ -8951,19 +8951,19 @@
         <v>1475586</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1454432</v>
+        <v>1452616</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1494329</v>
+        <v>1493886</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9055993992677325</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8926167683480063</v>
+        <v>0.8915020368162994</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9171024523944682</v>
+        <v>0.9168303699939009</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>296611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1064</v>
@@ -9076,19 +9076,19 @@
         <v>612406</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1456</v>
@@ -9097,19 +9097,19 @@
         <v>909017</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1250415969027669</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3236151</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3202795</v>
+        <v>3205746</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3266187</v>
+        <v>3267215</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9160400239900516</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9065979406759187</v>
+        <v>0.9074334733604685</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9245420356874532</v>
+        <v>0.9248330683744466</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4303</v>
@@ -9147,19 +9147,19 @@
         <v>3124548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3089167</v>
+        <v>3087817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3160228</v>
+        <v>3159584</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8361215378400676</v>
+        <v>0.8361215378400675</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8266537687402455</v>
+        <v>0.8262925889749048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.845669580829999</v>
+        <v>0.845497050512699</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7287</v>
@@ -9168,19 +9168,19 @@
         <v>6360699</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6314279</v>
+        <v>6310917</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6408191</v>
+        <v>6405684</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8749584030972332</v>
+        <v>0.8749584030972331</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8685730584295043</v>
+        <v>0.8681104628699546</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8814911953121245</v>
+        <v>0.8811463969886048</v>
       </c>
     </row>
     <row r="30">
